--- a/Reptiles_qichacha/company_msg.xlsx
+++ b/Reptiles_qichacha/company_msg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\useful_scripts\Reptiles_qichacha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF7CCA9-7C4F-4548-8F34-1F93331645C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE1BE98-CB3F-401F-A4EF-847C7CEA918E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="152">
   <si>
     <t>url</t>
   </si>
@@ -55,130 +55,313 @@
     <t>企业规模</t>
   </si>
   <si>
-    <t>https://www.qcc.com/firm/81134c9bf473ae8e80f18aceb5e4497b.html</t>
-  </si>
-  <si>
-    <t>常州市唯壹嘉医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>孔泳</t>
-  </si>
-  <si>
-    <t>91320412071028780Y</t>
-  </si>
-  <si>
-    <t>https://www.qcc.com/firm/de5fb3f63668bd7e90c62a1715fd03db.html</t>
-  </si>
-  <si>
-    <t>常州恒正医药科技有限公司</t>
-  </si>
-  <si>
-    <t>史关正</t>
-  </si>
-  <si>
-    <t>91320412302223453Y</t>
-  </si>
-  <si>
-    <t>https://www.qcc.com/firm/d77a3a23d63fa26a070f542d248b9924.html</t>
-  </si>
-  <si>
-    <t>常州森柏医药科技有限公司</t>
-  </si>
-  <si>
-    <t>尹健</t>
-  </si>
-  <si>
-    <t>91320412094081971Y</t>
-  </si>
-  <si>
-    <t>https://www.qcc.com/firm/e87dc238f6434c2f2fdc46790be84665.html</t>
-  </si>
-  <si>
-    <t>常州奥玛特航宇装备技术有限公司</t>
-  </si>
-  <si>
-    <t>高航</t>
-  </si>
-  <si>
-    <t>91320412089386383W</t>
+    <t>https://www.qcc.com/firm/805dd8142c5d98022a0f75881473374e.html</t>
+  </si>
+  <si>
+    <t>碳元科技股份有限公司</t>
+  </si>
+  <si>
+    <t>徐世中</t>
+  </si>
+  <si>
+    <t>91320400560286705F</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/af652435a43095dc5f016eb0b59628d9.html</t>
+  </si>
+  <si>
+    <t>常州第六元素材料科技股份有限公司</t>
+  </si>
+  <si>
+    <t>瞿研</t>
+  </si>
+  <si>
+    <t>913204005855760475</t>
+  </si>
+  <si>
+    <t>董事长,总经理</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/0204eeddc35486154e8ae2ae223709d3.html</t>
+  </si>
+  <si>
+    <t>常州二维碳素科技股份有限公司</t>
+  </si>
+  <si>
+    <t>于庆凯</t>
+  </si>
+  <si>
+    <t>91320400588428242Q</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/080eab047260da8c5a8c7b10cd9a784f.html</t>
+  </si>
+  <si>
+    <t>常州二维暖烯科技有限公司</t>
+  </si>
+  <si>
+    <t>91320412MA1TAUR110</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/c208344d0f0ed834f5ea3864de3f73c8.html</t>
+  </si>
+  <si>
+    <t>常州碳宇纳米科技有限公司</t>
+  </si>
+  <si>
+    <t>刘遵峰</t>
+  </si>
+  <si>
+    <t>913204125939808833</t>
+  </si>
+  <si>
+    <t>董事长</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/f6f41d3f8cdead4511d995881adc2573.html</t>
+  </si>
+  <si>
+    <t>江苏华创磁业有限公司</t>
+  </si>
+  <si>
+    <t>都有为</t>
+  </si>
+  <si>
+    <t>91320412593946845H</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/261be18516fcc5e1338f5fd1ee7023e5.html</t>
+  </si>
+  <si>
+    <t>常州唯楚环保科技有限公司</t>
+  </si>
+  <si>
+    <t>何理</t>
+  </si>
+  <si>
+    <t>91320412598620289C</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/33f200fe122e26d23b256f0362e89525.html</t>
+  </si>
+  <si>
+    <t>常州磐诺仪器有限公司</t>
+  </si>
+  <si>
+    <t>王涵文</t>
+  </si>
+  <si>
+    <t>91320412301806462C</t>
+  </si>
+  <si>
+    <t>执行董事兼总经理</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/dd6f53f772c321909115b3cff088e132.html</t>
+  </si>
+  <si>
+    <t>常州磐信环保科技有限公司</t>
+  </si>
+  <si>
+    <t>91320412MA1N838D9D</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/282f06697c9ed61ac0b5073a80d97147.html</t>
+  </si>
+  <si>
+    <t>常州仪盟核芯仪器有限公司</t>
+  </si>
+  <si>
+    <t>9132041205865420X5</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/6e2b828d1dda74c1c7c2e629e3f3e4ea.html</t>
+  </si>
+  <si>
+    <t>常州博恩中鼎医疗科技有限公司</t>
+  </si>
+  <si>
+    <t>黎雁龙</t>
+  </si>
+  <si>
+    <t>91320412050261153A</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/abab48540eea0ceb7f981e871ab8cdb7.html</t>
+  </si>
+  <si>
+    <t>江苏先诺新材料科技有限公司</t>
+  </si>
+  <si>
+    <t>武德珍</t>
+  </si>
+  <si>
+    <t>913204120645859762</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/45cd05d2d0e70dc5eee3e21affb3168a.html</t>
+  </si>
+  <si>
+    <t>国成仪器（常州）有限公司</t>
+  </si>
+  <si>
+    <t>董国材</t>
+  </si>
+  <si>
+    <t>91320412323754114J</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/d484bc075d5c4527127eabd6fa319081.html</t>
+  </si>
+  <si>
+    <t>常州碳维纳米科技有限公司</t>
+  </si>
+  <si>
+    <t>91320412060176745W</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/0766cc939f2d7dc30a775de8f6918f85.html</t>
+  </si>
+  <si>
+    <t>冯乙巳</t>
+  </si>
+  <si>
+    <t>913204126871874803</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/b32d938919444a19eee1e7c7d5e3b95f.html</t>
+  </si>
+  <si>
+    <t>常州易呼通物流科技有限公司</t>
+  </si>
+  <si>
+    <t>王庆</t>
+  </si>
+  <si>
+    <t>91320412588430414H</t>
   </si>
   <si>
     <t>监事</t>
   </si>
   <si>
-    <t>https://www.qcc.com/firm/f2ca5ec52a53f33b824eb18c0cc40a36.html</t>
-  </si>
-  <si>
-    <t>常州阿德凡斯新材料科技有限公司</t>
-  </si>
-  <si>
-    <t>陆敏</t>
-  </si>
-  <si>
-    <t>913204120942776678</t>
-  </si>
-  <si>
-    <t>https://www.qcc.com/firm/2668b0b45e60664734e87c3b5132fef4.html</t>
-  </si>
-  <si>
-    <t>常州复睿特生物科技有限公司</t>
-  </si>
-  <si>
-    <t>鲁伯埙</t>
-  </si>
-  <si>
-    <t>91320412302064069W</t>
-  </si>
-  <si>
-    <t>https://www.qcc.com/firm/0fddc17f57ad20b1a64364e9d0361597.html</t>
-  </si>
-  <si>
-    <t>常州创微电子机械科技有限公司</t>
-  </si>
-  <si>
-    <t>沈文江</t>
-  </si>
-  <si>
-    <t>913204123022593099</t>
-  </si>
-  <si>
-    <t>https://www.qcc.com/firm/393c01a84bd079b3d75b536837f5e531.html</t>
-  </si>
-  <si>
-    <t>常州沃杨机械科技有限公司</t>
-  </si>
-  <si>
-    <t>张源辉</t>
-  </si>
-  <si>
-    <t>91320412094404275M</t>
-  </si>
-  <si>
-    <t>https://www.qcc.com/firm/8b78b5f28fb2ccbd7cfcbf86d3ae6e59.html</t>
-  </si>
-  <si>
-    <t>常州立英新材料科技有限公司</t>
-  </si>
-  <si>
-    <t>郭新立</t>
-  </si>
-  <si>
-    <t>91320412302223373B</t>
-  </si>
-  <si>
-    <t>执行董事兼总经理</t>
-  </si>
-  <si>
-    <t>https://www.qcc.com/firm/cd61b1c74e2a1f8418ffd1f708e2f762.html</t>
-  </si>
-  <si>
-    <t>常州墨之萃科技有限公司</t>
-  </si>
-  <si>
-    <t>李永峰</t>
-  </si>
-  <si>
-    <t>913204120941145692</t>
+    <t>https://www.qcc.com/firm/d429cc762602df77aa2d1282ff08f6ae.html</t>
+  </si>
+  <si>
+    <t>常州特斯拉金属科技有限公司</t>
+  </si>
+  <si>
+    <t>谭佃龙</t>
+  </si>
+  <si>
+    <t>9132041205522874XE</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/bb24f6bddaaa7167cbbef909efcf0d3c.html</t>
+  </si>
+  <si>
+    <t>常州朗诣节能技术有限公司</t>
+  </si>
+  <si>
+    <t>李建国</t>
+  </si>
+  <si>
+    <t>91320412595562060B</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/144804442bf793389d56a4b8306ebf60.html</t>
+  </si>
+  <si>
+    <t>李新华</t>
+  </si>
+  <si>
+    <t>91320412069467688K</t>
+  </si>
+  <si>
+    <t>董事长兼总经理</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/c7d65f6a204a240775d991a107c264b2.html</t>
+  </si>
+  <si>
+    <t>常州优博新能源有限公司</t>
+  </si>
+  <si>
+    <t>于平荣</t>
+  </si>
+  <si>
+    <t>91320412581096994A</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/b7c67dcc614cb8db4039f19f3e078eeb.html</t>
+  </si>
+  <si>
+    <t>常州欧斯医疗科技有限公司</t>
+  </si>
+  <si>
+    <t>何红兵</t>
+  </si>
+  <si>
+    <t>913204120694555724</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/78df2e294ec4bb42a7fb62c2c4226449.html</t>
+  </si>
+  <si>
+    <t>常州龙腾路华农业科技有限公司</t>
+  </si>
+  <si>
+    <t>钟路华</t>
+  </si>
+  <si>
+    <t>9132041207101803X4</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/f0890f794192593e8309c8b0c5106990.html</t>
+  </si>
+  <si>
+    <t>常州尚美医药科技有限公司</t>
+  </si>
+  <si>
+    <t>陈元伟</t>
+  </si>
+  <si>
+    <t>9132041207276750X5</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/32adc0804c7fcb37e9363ad799fdbc41.html</t>
+  </si>
+  <si>
+    <t>常州诺贝朗生物医药科技有限公司</t>
+  </si>
+  <si>
+    <t>付清泉</t>
+  </si>
+  <si>
+    <t>91320412083111047F</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/644fed4263e62771b3b21be06da85506.html</t>
+  </si>
+  <si>
+    <t>常州碳星科技有限公司</t>
+  </si>
+  <si>
+    <t>孙立涛</t>
+  </si>
+  <si>
+    <t>91320412085028191U</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/3c0174992b5d332662dc0132cd1b4656.html</t>
+  </si>
+  <si>
+    <t>常州毅博生物科技有限公司</t>
+  </si>
+  <si>
+    <t>黄龙</t>
+  </si>
+  <si>
+    <t>913204120586606427</t>
   </si>
   <si>
     <t>https://www.qcc.com/firm/9b9f30f14a811b52d024042e7ec01a4d.html</t>
@@ -193,136 +376,22 @@
     <t>913204120747495838</t>
   </si>
   <si>
-    <t>董事长,总经理</t>
-  </si>
-  <si>
-    <t>https://www.qcc.com/firm/5d3c5bc32d7e6754bcc16bee8bf0e2a6.html</t>
-  </si>
-  <si>
-    <t>常州微普生物科技有限公司</t>
-  </si>
-  <si>
-    <t>刘玉菲</t>
-  </si>
-  <si>
-    <t>91320412398356524U</t>
-  </si>
-  <si>
-    <t>董事</t>
-  </si>
-  <si>
-    <t>https://www.qcc.com/firm/a114d4e632a643fd3103e5e97eca30c4.html</t>
-  </si>
-  <si>
-    <t>https://www.qcc.com/firm/74b15312997f5fe20fafff63ad5ef2cf.html</t>
-  </si>
-  <si>
-    <t>常州市易事达照明工程有限公司</t>
-  </si>
-  <si>
-    <t>张霞</t>
-  </si>
-  <si>
-    <t>91320412302069804Q</t>
-  </si>
-  <si>
-    <t>https://www.qcc.com/firm/bd62e92f4fb82899c6d31eac0b65a1ae.html</t>
-  </si>
-  <si>
-    <t>常州瑞丰特科技有限公司</t>
-  </si>
-  <si>
-    <t>刘红忠</t>
-  </si>
-  <si>
-    <t>91320412323865180Y</t>
-  </si>
-  <si>
-    <t>https://www.qcc.com/firm/54ad0a2b50db584558b422e521e40d9e.html</t>
-  </si>
-  <si>
-    <t>常州端点星科技有限公司</t>
-  </si>
-  <si>
-    <t>纪艺琼</t>
-  </si>
-  <si>
-    <t>913204123460897862</t>
-  </si>
-  <si>
-    <t>执行董事</t>
-  </si>
-  <si>
-    <t>https://www.qcc.com/firm/9cad7e3fe881366f0ad448530de83bf0.html</t>
-  </si>
-  <si>
-    <t>常州宗华碳膜科技有限公司</t>
-  </si>
-  <si>
-    <t>彭新生</t>
-  </si>
-  <si>
-    <t>https://www.qcc.com/firm/d464aa249e083db9e14f221e89c98cd5.html</t>
-  </si>
-  <si>
-    <t>常州市璟恒医疗科技有限公司</t>
-  </si>
-  <si>
-    <t>方强</t>
-  </si>
-  <si>
-    <t>https://www.qcc.com/firm/ba3c4056ea7840ef01529b455ae12794.html</t>
-  </si>
-  <si>
-    <t>常州朗道精密仪器有限公司</t>
-  </si>
-  <si>
-    <t>潘明虎</t>
-  </si>
-  <si>
-    <t>https://www.qcc.com/firm/9de8eb0d5417bc3643e27eab38301402.html</t>
-  </si>
-  <si>
-    <t>常州烯晨新材料科技有限公司</t>
-  </si>
-  <si>
-    <t>储富强</t>
-  </si>
-  <si>
-    <t>91320412321253789T</t>
-  </si>
-  <si>
-    <t>https://www.qcc.com/firm/c6f221bb3c46f6728f633ef66e59ee20.html</t>
-  </si>
-  <si>
-    <t>常州金麦格生物技术有限公司</t>
-  </si>
-  <si>
-    <t>赵海峰</t>
-  </si>
-  <si>
-    <t>https://www.qcc.com/firm/c6a0f79733cc33c520e9474adddf4520.html</t>
-  </si>
-  <si>
-    <t>常州博碳环保科技有限公司</t>
-  </si>
-  <si>
-    <t>贾宝平</t>
-  </si>
-  <si>
-    <t>常州凯派斯特技术有限公司</t>
-  </si>
-  <si>
-    <t>张昕</t>
-  </si>
-  <si>
-    <t>https://www.qcc.com/firm/d451dd827108cd10e1fb52322f9d134a.html</t>
-  </si>
-  <si>
-    <t>江苏亚邦医用新材料有限公司</t>
-  </si>
-  <si>
-    <t>盛  丰</t>
+    <t>https://www.qcc.com/firm/07fc94888ae961b665d17f7fe0e66b44.html</t>
+  </si>
+  <si>
+    <t>常州舣舟医疗器械有限公司</t>
+  </si>
+  <si>
+    <t>913204025618100385</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/d8accddb3d33746685e69a84a5fa815c.html</t>
+  </si>
+  <si>
+    <t>常州纳星医疗科技有限公司</t>
+  </si>
+  <si>
+    <t>91320412MA1X60RC11</t>
   </si>
   <si>
     <t>https://www.qcc.com/firm/b8be1fa7314fdbd4c6448467a622b035.html</t>
@@ -334,42 +403,83 @@
     <t>李四中</t>
   </si>
   <si>
-    <t>https://www.qcc.com/firm/d48eaf0e279db8fe44a06ffcd697d4c7.html</t>
-  </si>
-  <si>
-    <t>常州阿木奇声学科技有限公司</t>
-  </si>
-  <si>
-    <t>魏  鹏</t>
-  </si>
-  <si>
-    <t>https://www.qcc.com/firm/1b21dbea4f19abee0d8ede10194fd55a.html</t>
-  </si>
-  <si>
-    <t>江苏亚邦中药饮片有限公司</t>
-  </si>
-  <si>
-    <t>孙东东</t>
-  </si>
-  <si>
-    <t>https://www.qcc.com/firm/3d9cd5b4d6225bd9f49c0c4314692a89.html</t>
-  </si>
-  <si>
-    <t>江苏诺瑞思医疗器械有限公司</t>
-  </si>
-  <si>
-    <t>李长春</t>
-  </si>
-  <si>
-    <t>常州劲量新材料科技有限公司</t>
+    <t>913204120850470507</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/e1be509cf085f9937ec9575b9990a8c4.html</t>
+  </si>
+  <si>
+    <t>常州康驰医疗科技有限公司</t>
+  </si>
+  <si>
+    <t>冯卫红</t>
+  </si>
+  <si>
+    <t>91320412084447415D</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/8fb44445a19d098e43c7d5cd77e36c97.html</t>
+  </si>
+  <si>
+    <t>常州天地人和生物科技有限公司</t>
+  </si>
+  <si>
+    <t>蓝斐</t>
+  </si>
+  <si>
+    <t>9132041107277817X6</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/bbe6359d3ba6d88a3a9cc3eafec239c7.html</t>
+  </si>
+  <si>
+    <t>倪军</t>
+  </si>
+  <si>
+    <t>91320412088550102J</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/54f66cfa3decf18beacacc6effdd1e5f.html</t>
+  </si>
+  <si>
+    <t>赵小东</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/b3f4af136aa255649a00e0e0a3cf90af.html</t>
+  </si>
+  <si>
+    <t>常州爱康顿医疗科技有限公司</t>
+  </si>
+  <si>
+    <t>李盛英</t>
+  </si>
+  <si>
+    <t>https://www.qcc.com/firm/97b128ddf36878ae8532433cf695776c.html</t>
+  </si>
+  <si>
+    <t>常州洛桑智能机器人技术有限公司</t>
+  </si>
+  <si>
+    <t>朱海鸿</t>
+  </si>
+  <si>
+    <t>常州英孚传感科技有限公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>91320485MAC6TX6L2D</t>
+    <t>常州孟腾智能装备有限公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>JihongCheng</t>
+    <t>91320412094307926E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏地标建筑节能科技有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州瞻驰光电科技股份有限公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -742,18 +852,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="77.75" customWidth="1"/>
-    <col min="2" max="2" width="41.875" customWidth="1"/>
-    <col min="3" max="3" width="34.125" customWidth="1"/>
-    <col min="4" max="4" width="64" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="33.875" customWidth="1"/>
+    <col min="4" max="4" width="45.625" customWidth="1"/>
+    <col min="5" max="5" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
@@ -818,49 +928,49 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -891,9 +1001,6 @@
       <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -908,270 +1015,409 @@
       <c r="D9" t="s">
         <v>43</v>
       </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
         <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
         <v>49</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
         <v>58</v>
       </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
         <v>64</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
         <v>68</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
         <v>72</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17" t="s">
         <v>73</v>
-      </c>
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
         <v>77</v>
       </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
         <v>80</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>81</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" t="s">
         <v>83</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>84</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>85</v>
       </c>
-      <c r="D20" t="s">
-        <v>114</v>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>97</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>108</v>
+      </c>
+      <c r="D26" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>112</v>
+      </c>
+      <c r="D27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" t="s">
-        <v>100</v>
+        <v>119</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" t="s">
-        <v>103</v>
+        <v>122</v>
+      </c>
+      <c r="D30" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>126</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+      <c r="D32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>134</v>
+      </c>
+      <c r="D33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
